--- a/data/type4.xlsx
+++ b/data/type4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32000" windowHeight="13660"/>
+    <workbookView windowWidth="32000" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>21</v>
@@ -1441,7 +1441,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>25</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>31</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>33</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>35</v>
